--- a/+aae550/+hw1/partII_a.xlsx
+++ b/+aae550/+hw1/partII_a.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -485,43 +485,43 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>312.25281401069935</v>
+        <v>312.25115369684761</v>
       </c>
       <c r="F2">
-        <v>-8.0318613115462174</v>
+        <v>-8.0318491234546219</v>
       </c>
       <c r="G2">
-        <v>-9.6813868845378237E-2</v>
+        <v>-9.6815087654537724E-2</v>
       </c>
       <c r="H2">
-        <v>-10.112069469034616</v>
+        <v>-10.112054942940608</v>
       </c>
       <c r="I2">
-        <v>-1.2260491641367444E-2</v>
+        <v>-1.226178284972379E-2</v>
       </c>
       <c r="J2">
-        <v>5.0210616834269084E-2</v>
+        <v>5.0213410604839082E-2</v>
       </c>
       <c r="K2">
-        <v>-0.42205736318524734</v>
+        <v>-0.42205169102136431</v>
       </c>
       <c r="L2">
-        <v>-0.64448565920368817</v>
+        <v>-0.64448707724465892</v>
       </c>
       <c r="M2">
-        <v>-0.55398014705226339</v>
+        <v>-0.55397777535873804</v>
       </c>
       <c r="N2">
-        <v>9.5138099573274459E-2</v>
+        <v>9.514535503055277E-2</v>
       </c>
       <c r="O2">
-        <v>-0.34632464931463447</v>
+        <v>-0.34631943650294505</v>
       </c>
       <c r="P2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -538,37 +538,37 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>331.28137597847348</v>
+        <v>331.28137564737455</v>
       </c>
       <c r="F3">
-        <v>-8.130520040192188</v>
+        <v>-8.1305200810389877</v>
       </c>
       <c r="G3">
-        <v>-8.6947995980781068E-2</v>
+        <v>-8.694799189610114E-2</v>
       </c>
       <c r="H3">
-        <v>-10.226541273331963</v>
+        <v>-10.226541325427219</v>
       </c>
       <c r="I3">
-        <v>-2.0852201482699506E-3</v>
+        <v>-2.0852155175806741E-3</v>
       </c>
       <c r="J3">
-        <v>1.1014044938727041E-2</v>
+        <v>1.1014055162195335E-2</v>
       </c>
       <c r="K3">
-        <v>-0.49287021526618435</v>
+        <v>-0.49287020697214112</v>
       </c>
       <c r="L3">
-        <v>-0.62678244618345391</v>
+        <v>-0.62678244825696472</v>
       </c>
       <c r="M3">
-        <v>-0.57960059860982416</v>
+        <v>-0.57960059818927179</v>
       </c>
       <c r="N3">
-        <v>2.1698781706808168E-2</v>
+        <v>2.1698777989694884E-2</v>
       </c>
       <c r="O3">
-        <v>-0.39674928961930667</v>
+        <v>-0.39674929451277063</v>
       </c>
       <c r="P3">
         <v>17</v>
@@ -591,37 +591,37 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>336.24534792015163</v>
+        <v>336.24534636048384</v>
       </c>
       <c r="F4">
-        <v>-8.1316532494542244</v>
+        <v>-8.1316532899987468</v>
       </c>
       <c r="G4">
-        <v>-8.6834675054577537E-2</v>
+        <v>-8.6834671000125319E-2</v>
       </c>
       <c r="H4">
-        <v>-10.225161920688686</v>
+        <v>-10.225161973110446</v>
       </c>
       <c r="I4">
-        <v>-2.2078292721168236E-3</v>
+        <v>-2.2078246124047629E-3</v>
       </c>
       <c r="J4">
-        <v>-3.9082310961032762E-3</v>
+        <v>-3.9082174032528672E-3</v>
       </c>
       <c r="K4">
-        <v>-0.51523712903275376</v>
+        <v>-0.51523711510389569</v>
       </c>
       <c r="L4">
-        <v>-0.62119071774181156</v>
+        <v>-0.62119072122402608</v>
       </c>
       <c r="M4">
-        <v>-0.58580749854618852</v>
+        <v>-0.58580749662443465</v>
       </c>
       <c r="N4">
-        <v>6.7350617239834154E-3</v>
+        <v>6.7350616961001641E-3</v>
       </c>
       <c r="O4">
-        <v>-0.40565821715545181</v>
+        <v>-0.40565821981078953</v>
       </c>
       <c r="P4">
         <v>4</v>
@@ -644,37 +644,37 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>338.06386594055181</v>
+        <v>338.06386436367933</v>
       </c>
       <c r="F5">
-        <v>-8.1320723650185389</v>
+        <v>-8.1320724055571301</v>
       </c>
       <c r="G5">
-        <v>-8.679276349814613E-2</v>
+        <v>-8.6792759444286882E-2</v>
       </c>
       <c r="H5">
-        <v>-10.224661655476808</v>
+        <v>-10.224661707905506</v>
       </c>
       <c r="I5">
-        <v>-2.2522972909503336E-3</v>
+        <v>-2.2522926306216551E-3</v>
       </c>
       <c r="J5">
-        <v>-9.2643542244508215E-3</v>
+        <v>-9.2643405795790335E-3</v>
       </c>
       <c r="K5">
-        <v>-0.52343040637091809</v>
+        <v>-0.52343039232726296</v>
       </c>
       <c r="L5">
-        <v>-0.61914239840727048</v>
+        <v>-0.61914240191818426</v>
       </c>
       <c r="M5">
-        <v>-0.58803573720269053</v>
+        <v>-0.58803573528058151</v>
       </c>
       <c r="N5">
-        <v>1.3627254902826014E-3</v>
+        <v>1.362725487747074E-3</v>
       </c>
       <c r="O5">
-        <v>-0.4088569915368967</v>
+        <v>-0.40885699416256294</v>
       </c>
       <c r="P5">
         <v>3</v>
@@ -697,37 +697,37 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>338.48756233707343</v>
+        <v>338.48756076366965</v>
       </c>
       <c r="F6">
-        <v>-8.1321697487697637</v>
+        <v>-8.1321697893086604</v>
       </c>
       <c r="G6">
-        <v>-8.6783025123023494E-2</v>
+        <v>-8.6783021069133937E-2</v>
       </c>
       <c r="H6">
-        <v>-10.224544760933416</v>
+        <v>-10.224544813361623</v>
       </c>
       <c r="I6">
-        <v>-2.2626879170296599E-3</v>
+        <v>-2.2626832567445021E-3</v>
       </c>
       <c r="J6">
-        <v>-1.0504069084466106E-2</v>
+        <v>-1.0504055472598472E-2</v>
       </c>
       <c r="K6">
-        <v>-0.52533940023031889</v>
+        <v>-0.52533938619361376</v>
       </c>
       <c r="L6">
-        <v>-0.61866514994242028</v>
+        <v>-0.61866515345159656</v>
       </c>
       <c r="M6">
-        <v>-0.58855145553832444</v>
+        <v>-0.58855145362523897</v>
       </c>
       <c r="N6">
-        <v>1.193462059736472E-4</v>
+        <v>1.1934618735454094E-4</v>
       </c>
       <c r="O6">
-        <v>-0.40959730225827851</v>
+        <v>-0.40959730489014479</v>
       </c>
       <c r="P6">
         <v>2</v>
@@ -750,37 +750,37 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>338.52904210527026</v>
+        <v>338.5290405049563</v>
       </c>
       <c r="F7">
-        <v>-8.1321791816149656</v>
+        <v>-8.1321792221476752</v>
       </c>
       <c r="G7">
-        <v>-8.6782081838503444E-2</v>
+        <v>-8.6782077785232503E-2</v>
       </c>
       <c r="H7">
-        <v>-10.224533188599679</v>
+        <v>-10.224533241035418</v>
       </c>
       <c r="I7">
-        <v>-2.2637165689174399E-3</v>
+        <v>-2.2637119079628176E-3</v>
       </c>
       <c r="J7">
-        <v>-1.0625292333237502E-2</v>
+        <v>-1.0625278644965541E-2</v>
       </c>
       <c r="K7">
-        <v>-0.52552630735222072</v>
+        <v>-0.52552629319340216</v>
       </c>
       <c r="L7">
-        <v>-0.61861842316194482</v>
+        <v>-0.61861842670164946</v>
       </c>
       <c r="M7">
-        <v>-0.58860187485780835</v>
+        <v>-0.58860187291248312</v>
       </c>
       <c r="N7">
-        <v>-2.2016212376518851E-6</v>
+        <v>-2.20156157948459E-6</v>
       </c>
       <c r="O7">
-        <v>-0.40966966562672935</v>
+        <v>-0.40966966821166217</v>
       </c>
       <c r="P7">
         <v>1</v>
@@ -803,37 +803,37 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>338.52440808943913</v>
+        <v>338.52440651440168</v>
       </c>
       <c r="F8">
-        <v>-8.1321781287731003</v>
+        <v>-8.1321781693115582</v>
       </c>
       <c r="G8">
-        <v>-8.6782187122689924E-2</v>
+        <v>-8.678218306884411E-2</v>
       </c>
       <c r="H8">
-        <v>-10.224534482667417</v>
+        <v>-10.224534535096094</v>
       </c>
       <c r="I8">
-        <v>-2.263601540673954E-3</v>
+        <v>-2.2635968803472739E-3</v>
       </c>
       <c r="J8">
-        <v>-1.0611750835283096E-2</v>
+        <v>-1.0611737220627471E-2</v>
       </c>
       <c r="K8">
-        <v>-0.52550542639166009</v>
+        <v>-0.52550541234683923</v>
       </c>
       <c r="L8">
-        <v>-0.61862364340208498</v>
+        <v>-0.61862364691329019</v>
       </c>
       <c r="M8">
-        <v>-0.58859624275073286</v>
+        <v>-0.58859624083607764</v>
       </c>
       <c r="N8">
-        <v>1.1375809765068468E-5</v>
+        <v>1.1375795425205837E-5</v>
       </c>
       <c r="O8">
-        <v>-0.40966158238004013</v>
+        <v>-0.40966158500906424</v>
       </c>
       <c r="P8">
         <v>1</v>
@@ -856,37 +856,37 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>338.53162970240624</v>
+        <v>338.53162810627509</v>
       </c>
       <c r="F9">
-        <v>-8.1321796160316726</v>
+        <v>-8.1321796565655156</v>
       </c>
       <c r="G9">
-        <v>-8.6782038396832739E-2</v>
+        <v>-8.6782034343448444E-2</v>
       </c>
       <c r="H9">
-        <v>-10.224532270891176</v>
+        <v>-10.224532323325988</v>
       </c>
       <c r="I9">
-        <v>-2.2637981430064791E-3</v>
+        <v>-2.2637934821344574E-3</v>
       </c>
       <c r="J9">
-        <v>-1.0632887456335505E-2</v>
+        <v>-1.0632873780386021E-2</v>
       </c>
       <c r="K9">
-        <v>-0.5255379931873092</v>
+        <v>-0.52553797904725341</v>
       </c>
       <c r="L9">
-        <v>-0.6186155017031727</v>
+        <v>-0.61861550523818665</v>
       </c>
       <c r="M9">
-        <v>-0.58860501971530454</v>
+        <v>-0.58860501777509322</v>
       </c>
       <c r="N9">
-        <v>-9.765614965573377E-6</v>
+        <v>-9.7655676213337372E-6</v>
       </c>
       <c r="O9">
-        <v>-0.40967415897323856</v>
+        <v>-0.40967416156549408</v>
       </c>
       <c r="P9">
         <v>1</v>
@@ -909,37 +909,37 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>338.52836095123666</v>
+        <v>338.5283593748498</v>
       </c>
       <c r="F10">
-        <v>-8.1321788733759544</v>
+        <v>-8.1321789139142879</v>
       </c>
       <c r="G10">
-        <v>-8.6782112662404431E-2</v>
+        <v>-8.6782108608571162E-2</v>
       </c>
       <c r="H10">
-        <v>-10.224533183703169</v>
+        <v>-10.224533236132462</v>
       </c>
       <c r="I10">
-        <v>-2.2637170041627241E-3</v>
+        <v>-2.263712343781088E-3</v>
       </c>
       <c r="J10">
-        <v>-1.0623335712848347E-2</v>
+        <v>-1.062332209442074E-2</v>
       </c>
       <c r="K10">
-        <v>-0.5255232641341987</v>
+        <v>-0.52552325008318279</v>
       </c>
       <c r="L10">
-        <v>-0.61861918396645033</v>
+        <v>-0.6186191874792043</v>
       </c>
       <c r="M10">
-        <v>-0.588601047005328</v>
+        <v>-0.58860104508907696</v>
       </c>
       <c r="N10">
-        <v>-1.8852492433829582E-7</v>
+        <v>-1.8853538563678995E-7</v>
       </c>
       <c r="O10">
-        <v>-0.40966845730679602</v>
+        <v>-0.40966845993349155</v>
       </c>
       <c r="P10">
         <v>1</v>
@@ -962,37 +962,37 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>338.52836095123666</v>
+        <v>338.5283593748498</v>
       </c>
       <c r="F11">
-        <v>-8.1321788733759544</v>
+        <v>-8.1321789139142879</v>
       </c>
       <c r="G11">
-        <v>-8.6782112662404431E-2</v>
+        <v>-8.6782108608571162E-2</v>
       </c>
       <c r="H11">
-        <v>-10.224533183703169</v>
+        <v>-10.224533236132462</v>
       </c>
       <c r="I11">
-        <v>-2.2637170041627241E-3</v>
+        <v>-2.263712343781088E-3</v>
       </c>
       <c r="J11">
-        <v>-1.0623335712848347E-2</v>
+        <v>-1.062332209442074E-2</v>
       </c>
       <c r="K11">
-        <v>-0.5255232641341987</v>
+        <v>-0.52552325008318279</v>
       </c>
       <c r="L11">
-        <v>-0.61861918396645033</v>
+        <v>-0.6186191874792043</v>
       </c>
       <c r="M11">
-        <v>-0.588601047005328</v>
+        <v>-0.58860104508907696</v>
       </c>
       <c r="N11">
-        <v>-1.8852492433829582E-7</v>
+        <v>-1.8853538563678995E-7</v>
       </c>
       <c r="O11">
-        <v>-0.40966845730679602</v>
+        <v>-0.40966845993349155</v>
       </c>
       <c r="P11">
         <v>1</v>

--- a/+aae550/+hw1/partII_a.xlsx
+++ b/+aae550/+hw1/partII_a.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Grad\+aae550\+hw1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomassatterly/Grad/+aae550/+hw1/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13770"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="23460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>Minimization</t>
   </si>
@@ -93,14 +99,31 @@
   </si>
   <si>
     <t>0.45661     0.44898</t>
+  </si>
+  <si>
+    <t>Total Iterations</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -128,8 +151,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,69 +438,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:Q11"/>
+    <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="15.1640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" hidden="1" customWidth="1"/>
+    <col min="6" max="8" width="8.6640625" hidden="1" customWidth="1"/>
+    <col min="9" max="14" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2">
@@ -484,37 +523,37 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>312.25115369684761</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>-8.0318491234546219</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>-9.6815087654537724E-2</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>-10.112054942940608</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>-1.226178284972379E-2</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <v>5.0213410604839082E-2</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="2">
         <v>-0.42205169102136431</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="2">
         <v>-0.64448707724465892</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="2">
         <v>-0.55397777535873804</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="2">
         <v>9.514535503055277E-2</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="2">
         <v>-0.34631943650294505</v>
       </c>
       <c r="P2">
@@ -524,8 +563,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3">
@@ -537,37 +576,37 @@
       <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>331.28137564737455</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>-8.1305200810389877</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>-8.694799189610114E-2</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>-10.226541325427219</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <v>-2.0852155175806741E-3</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="2">
         <v>1.1014055162195335E-2</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="2">
         <v>-0.49287020697214112</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="2">
         <v>-0.62678244825696472</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="2">
         <v>-0.57960059818927179</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="2">
         <v>2.1698777989694884E-2</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="2">
         <v>-0.39674929451277063</v>
       </c>
       <c r="P3">
@@ -577,8 +616,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4">
@@ -590,37 +629,37 @@
       <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>336.24534636048384</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>-8.1316532899987468</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>-8.6834671000125319E-2</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>-10.225161973110446</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>-2.2078246124047629E-3</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <v>-3.9082174032528672E-3</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="2">
         <v>-0.51523711510389569</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="2">
         <v>-0.62119072122402608</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="2">
         <v>-0.58580749662443465</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="2">
         <v>6.7350616961001641E-3</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="2">
         <v>-0.40565821981078953</v>
       </c>
       <c r="P4">
@@ -630,8 +669,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5">
@@ -643,37 +682,37 @@
       <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>338.06386436367933</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>-8.1320724055571301</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>-8.6792759444286882E-2</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>-10.224661707905506</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>-2.2522926306216551E-3</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <v>-9.2643405795790335E-3</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="2">
         <v>-0.52343039232726296</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="2">
         <v>-0.61914240191818426</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="2">
         <v>-0.58803573528058151</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="2">
         <v>1.362725487747074E-3</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="2">
         <v>-0.40885699416256294</v>
       </c>
       <c r="P5">
@@ -683,8 +722,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6">
@@ -696,37 +735,37 @@
       <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>338.48756076366965</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>-8.1321697893086604</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>-8.6783021069133937E-2</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <v>-10.224544813361623</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <v>-2.2626832567445021E-3</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="2">
         <v>-1.0504055472598472E-2</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="2">
         <v>-0.52533938619361376</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="2">
         <v>-0.61866515345159656</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="2">
         <v>-0.58855145362523897</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="2">
         <v>1.1934618735454094E-4</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="2">
         <v>-0.40959730489014479</v>
       </c>
       <c r="P6">
@@ -736,8 +775,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7">
@@ -749,37 +788,37 @@
       <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>338.5290405049563</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>-8.1321792221476752</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>-8.6782077785232503E-2</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>-10.224533241035418</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <v>-2.2637119079628176E-3</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="2">
         <v>-1.0625278644965541E-2</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="2">
         <v>-0.52552629319340216</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="2">
         <v>-0.61861842670164946</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="2">
         <v>-0.58860187291248312</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="2">
         <v>-2.20156157948459E-6</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="2">
         <v>-0.40966966821166217</v>
       </c>
       <c r="P7">
@@ -789,8 +828,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8">
@@ -802,37 +841,37 @@
       <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>338.52440651440168</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>-8.1321781693115582</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>-8.678218306884411E-2</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <v>-10.224534535096094</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <v>-2.2635968803472739E-3</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="2">
         <v>-1.0611737220627471E-2</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="2">
         <v>-0.52550541234683923</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="2">
         <v>-0.61862364691329019</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="2">
         <v>-0.58859624083607764</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="2">
         <v>1.1375795425205837E-5</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="2">
         <v>-0.40966158500906424</v>
       </c>
       <c r="P8">
@@ -842,8 +881,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9">
@@ -855,37 +894,37 @@
       <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>338.53162810627509</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>-8.1321796565655156</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <v>-8.6782034343448444E-2</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <v>-10.224532323325988</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <v>-2.2637934821344574E-3</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="2">
         <v>-1.0632873780386021E-2</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="2">
         <v>-0.52553797904725341</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="2">
         <v>-0.61861550523818665</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="2">
         <v>-0.58860501777509322</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="2">
         <v>-9.7655676213337372E-6</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="2">
         <v>-0.40967416156549408</v>
       </c>
       <c r="P9">
@@ -895,8 +934,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10">
@@ -908,37 +947,37 @@
       <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>338.5283593748498</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>-8.1321789139142879</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <v>-8.6782108608571162E-2</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <v>-10.224533236132462</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="2">
         <v>-2.263712343781088E-3</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="2">
         <v>-1.062332209442074E-2</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="2">
         <v>-0.52552325008318279</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="2">
         <v>-0.6186191874792043</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="2">
         <v>-0.58860104508907696</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="2">
         <v>-1.8853538563678995E-7</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="2">
         <v>-0.40966845993349155</v>
       </c>
       <c r="P10">
@@ -948,8 +987,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11">
@@ -961,37 +1000,37 @@
       <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>338.5283593748498</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>-8.1321789139142879</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <v>-8.6782108608571162E-2</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <v>-10.224533236132462</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="2">
         <v>-2.263712343781088E-3</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="2">
         <v>-1.062332209442074E-2</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="2">
         <v>-0.52552325008318279</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="2">
         <v>-0.6186191874792043</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="2">
         <v>-0.58860104508907696</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="2">
         <v>-1.8853538563678995E-7</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="2">
         <v>-0.40966845993349155</v>
       </c>
       <c r="P11">
@@ -1001,7 +1040,25 @@
         <v>5</v>
       </c>
     </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O13" s="3"/>
+      <c r="P13">
+        <f xml:space="preserve"> SUM(P2:P11)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O21" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="N13:O13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/+aae550/+hw1/partII_a.xlsx
+++ b/+aae550/+hw1/partII_a.xlsx
@@ -441,16 +441,16 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" hidden="1" customWidth="1"/>
-    <col min="3" max="4" width="15.1640625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" hidden="1" customWidth="1"/>
-    <col min="6" max="8" width="8.6640625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="3" max="4" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="7.5" customWidth="1"/>
+    <col min="6" max="8" width="8.6640625" customWidth="1"/>
     <col min="9" max="14" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.5" bestFit="1" customWidth="1"/>
